--- a/English.xlsx
+++ b/English.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Stt</t>
   </si>
@@ -53,10 +53,46 @@
     <t>lịch trình</t>
   </si>
   <si>
-    <t>qưewqtq</t>
-  </si>
-  <si>
-    <t>qưeqeq</t>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>ngăn cấm, ngăn chặn</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>phối hợp, kết hợp</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>điều chỉnh, quy định</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rời khỏi, khởi hành </t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>đại lý, đại diện (của 1 công ty)</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>từ vựng</t>
+  </si>
+  <si>
+    <t>qewqerqrqr</t>
+  </si>
+  <si>
+    <t>qưeqwrqwrqr</t>
   </si>
 </sst>
 </file>
@@ -101,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -184,6 +220,83 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/English.xlsx
+++ b/English.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Stt</t>
   </si>
@@ -23,12 +23,18 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>announcement</t>
   </si>
   <si>
     <t>thông báo, công bố</t>
   </si>
   <si>
+    <t>Not memorized</t>
+  </si>
+  <si>
     <t>beverage</t>
   </si>
   <si>
@@ -83,16 +89,70 @@
     <t>đại lý, đại diện (của 1 công ty)</t>
   </si>
   <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>từ vựng</t>
-  </si>
-  <si>
-    <t>qewqerqrqr</t>
-  </si>
-  <si>
-    <t>qưeqwrqwrqr</t>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>tương đương</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>phí tổn, chi phí</t>
+  </si>
+  <si>
+    <t>substantially</t>
+  </si>
+  <si>
+    <t>lớn lao, đáng kể</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>toàn diện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deluxe </t>
+  </si>
+  <si>
+    <t>xa xỉ, xa hoa, thượng hạng</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>khoảng thời gian (tồn tại 1 sự việc)</t>
+  </si>
+  <si>
+    <t>entitle</t>
+  </si>
+  <si>
+    <t>cho phép làm cái gì</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>cước phí, tiền (vé) tàu xe</t>
+  </si>
+  <si>
+    <t>punctually</t>
+  </si>
+  <si>
+    <t>đúng giờ</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>chuỗi khách sạn, nhà hàng</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>sự dành trước, sự đặt chỗ trước</t>
   </si>
 </sst>
 </file>
@@ -137,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,8 +210,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -159,10 +222,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -170,9 +236,12 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -181,10 +250,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -192,10 +264,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -203,10 +278,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -214,10 +292,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -225,10 +306,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -236,10 +320,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -247,10 +334,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -258,10 +348,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -269,10 +362,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -280,10 +376,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -291,10 +390,125 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
